--- a/output/sites/clust_percent_sites.xlsx
+++ b/output/sites/clust_percent_sites.xlsx
@@ -383,10 +383,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>51.8518518518518</v>
+        <v>18.5185185185185</v>
       </c>
     </row>
     <row r="3">
@@ -411,24 +411,24 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8148148148148</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>32.258064516129</v>
+        <v>14.8148148148148</v>
       </c>
     </row>
     <row r="6">
@@ -436,13 +436,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>48.3870967741936</v>
+        <v>32.258064516129</v>
       </c>
     </row>
     <row r="7">
@@ -450,13 +450,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.8064516129032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>19.3548387096774</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.5806451612903</v>
       </c>
     </row>
   </sheetData>
